--- a/www.eia.gov/electricity/monthly/xls/table_6_01_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_6_01_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>Table 6.1.A. Net Summer Capacity for Utility Scale Solar Photovoltaic and Distributed Solar Photovoltaic Capacity (Megawatts)</t>
   </si>
   <si>
-    <t>2008 - October 2016</t>
+    <t>2008 - November 2016</t>
   </si>
   <si>
     <t>Period</t>
@@ -991,7 +991,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1655,17 +1655,31 @@
         <v>28726.2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="7">
+        <v>16636.900000000001</v>
+      </c>
+      <c r="C50" s="7">
+        <v>12863.5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>29500.400000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
